--- a/AD-OCS/Working SULFUR/data/provaADM1.xlsx
+++ b/AD-OCS/Working SULFUR/data/provaADM1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10560525_polimi_it/Documents/SUPER/PhD/Progetti Magistrali/Federico Rocca Thesis/Tecnologia/Data/Worksheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10619235_polimi_it/Documents/Documenti/GitHub/AD-OCS/AD-OCS/Working SULFUR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{854BF156-97D4-495F-9740-E4B6A28AF2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA3692B8-05A1-4D29-947F-3A5D7174D8F4}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{854BF156-97D4-495F-9740-E4B6A28AF2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE585B57-CBCD-495E-8F01-08EA5FF10F2C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{937B5A09-45AC-4F43-9144-B848BCA4D579}"/>
+    <workbookView xWindow="-20600" yWindow="-110" windowWidth="20710" windowHeight="11020" activeTab="2" xr2:uid="{937B5A09-45AC-4F43-9144-B848BCA4D579}"/>
   </bookViews>
   <sheets>
     <sheet name="SS_Values" sheetId="1" r:id="rId1"/>
     <sheet name="Influent" sheetId="2" r:id="rId2"/>
+    <sheet name="Deviations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>HRT
 [days]</t>
@@ -107,6 +108,9 @@
   </si>
   <si>
     <t>XTin</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -1490,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A321AC-F628-4EFB-981A-7BCDC659D22A}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2241,4 +2245,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696368A-29F6-4880-AF99-CE6E9EEE7087}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>